--- a/RuKeywords/Статистика v1/keys_words_number_stats.xlsx
+++ b/RuKeywords/Статистика v1/keys_words_number_stats.xlsx
@@ -8,16 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виктория\source\repos\PythonApplication1\RuKeywords\Статистика v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB95657-9E0F-43AF-BD7F-32B209E71BB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964AFBA7-DC8F-415A-80D3-C1870FAEC669}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8983" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8983" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3704,10 +3713,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7529146593451762E-2"/>
-          <c:y val="0.17353985813352527"/>
-          <c:w val="0.87526488795150459"/>
-          <c:h val="0.63598705416440227"/>
+          <c:x val="0.10720641901907091"/>
+          <c:y val="0.16985295611908668"/>
+          <c:w val="0.85558756480323261"/>
+          <c:h val="0.61017810744509438"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6396,6 +6405,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>НОМЕР СТАТЬИ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6417,13 +6481,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -6458,6 +6522,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество слов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6474,13 +6593,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -9590,6 +9709,33 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9730,6 +9876,5803 @@
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Распределение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> количества ключевых слов</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2514713178662904"/>
+          <c:y val="5.8422145127810597E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10720641901907091"/>
+          <c:y val="0.16985295611908668"/>
+          <c:w val="0.85558756480323261"/>
+          <c:h val="0.61017810744509438"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Количество ключевых слов</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$424</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="423"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BBB7-41D3-8663-6C2AFF8C71E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="584255816"/>
+        <c:axId val="584259424"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Включая стопслова</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:tint val="50000"/>
+                          <a:satMod val="300000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="35000">
+                        <a:schemeClr val="accent1">
+                          <a:tint val="37000"/>
+                          <a:satMod val="300000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:tint val="15000"/>
+                          <a:satMod val="350000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="16200000" scaled="1"/>
+                  </a:gradFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:shade val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="38000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$2:$E$424</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="423"/>
+                      <c:pt idx="0">
+                        <c:v>194</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>222</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>288</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>302</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>365</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>394</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>394</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>403</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>408</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>411</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>418</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>440</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>457</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>457</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>458</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>458</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>466</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>477</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>482</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>483</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>497</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>497</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>499</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>501</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>508</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>513</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>528</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>529</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>532</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>534</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>535</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>541</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>542</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>544</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>551</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>555</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>560</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>570</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>574</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>575</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>580</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>582</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>586</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>588</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>599</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>601</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>603</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>604</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>608</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>618</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>623</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>625</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>629</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>638</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>638</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>639</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>648</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>652</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>659</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>665</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>665</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>668</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>672</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>676</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>681</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>690</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>693</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>699</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>702</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>706</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>706</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>711</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>711</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>719</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>719</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>722</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>722</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>723</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>724</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>731</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>732</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>740</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>745</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>747</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>751</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>754</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>754</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>755</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>755</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>757</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>758</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>762</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>766</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>767</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>772</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>778</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>781</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>781</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>784</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>785</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>787</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>789</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>792</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>797</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>804</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>810</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>816</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>819</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>823</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>823</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>826</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>827</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>830</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>835</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>835</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>839</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>842</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>845</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>848</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>859</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>861</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>862</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>863</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>868</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>870</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>870</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>873</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>874</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>876</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>877</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>878</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>883</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>884</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>889</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>894</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>902</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>903</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>905</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>906</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>912</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>913</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>917</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>917</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>918</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>923</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>926</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>927</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>928</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>937</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>939</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>940</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>950</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>950</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>951</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>959</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>960</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>967</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>969</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>977</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>980</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>980</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>980</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>986</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>990</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>990</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>992</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>999</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>1004</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>1006</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>1009</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>1010</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>1011</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>1015</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>1015</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>1018</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>1019</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>1022</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>1022</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>1025</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>1031</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>1033</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>1034</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>1035</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>1036</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>1037</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>1037</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>1042</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>1044</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>1045</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>1050</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>1050</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>1052</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>1054</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>1056</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>1057</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>1058</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>1060</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>1062</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>1062</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>1065</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>1069</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>1072</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>1073</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>1079</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>1081</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>1083</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>1088</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>1088</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>1090</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>1094</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>1094</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>1097</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>1097</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>1097</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>1099</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>1101</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>1103</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>1109</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>1112</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>1114</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>1116</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>1120</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>1120</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>1121</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>1123</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>1125</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>1129</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>1129</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>1130</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>1132</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>1135</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>1141</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>1142</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>1142</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>1143</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>1147</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>1147</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>1150</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>1151</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>1152</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>1155</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>1156</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>1158</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>1158</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>1159</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>1162</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>1163</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>1166</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>1167</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>1168</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>1170</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>1178</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>1180</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>1180</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>1180</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>1184</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>1193</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>1198</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>1201</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>1201</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>1203</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>1204</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>1207</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>1209</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>1210</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>1212</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>1212</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>1212</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>1218</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>1219</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>1220</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>1221</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>1229</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>1231</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>1235</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>1237</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>1238</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>1240</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>1241</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>1241</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>1246</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>1246</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>1249</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>1254</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>1254</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>1254</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>1256</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>1260</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>1262</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>1269</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>1271</c:v>
+                      </c:pt>
+                      <c:pt idx="297">
+                        <c:v>1271</c:v>
+                      </c:pt>
+                      <c:pt idx="298">
+                        <c:v>1279</c:v>
+                      </c:pt>
+                      <c:pt idx="299">
+                        <c:v>1282</c:v>
+                      </c:pt>
+                      <c:pt idx="300">
+                        <c:v>1284</c:v>
+                      </c:pt>
+                      <c:pt idx="301">
+                        <c:v>1286</c:v>
+                      </c:pt>
+                      <c:pt idx="302">
+                        <c:v>1286</c:v>
+                      </c:pt>
+                      <c:pt idx="303">
+                        <c:v>1287</c:v>
+                      </c:pt>
+                      <c:pt idx="304">
+                        <c:v>1293</c:v>
+                      </c:pt>
+                      <c:pt idx="305">
+                        <c:v>1295</c:v>
+                      </c:pt>
+                      <c:pt idx="306">
+                        <c:v>1298</c:v>
+                      </c:pt>
+                      <c:pt idx="307">
+                        <c:v>1299</c:v>
+                      </c:pt>
+                      <c:pt idx="308">
+                        <c:v>1301</c:v>
+                      </c:pt>
+                      <c:pt idx="309">
+                        <c:v>1303</c:v>
+                      </c:pt>
+                      <c:pt idx="310">
+                        <c:v>1315</c:v>
+                      </c:pt>
+                      <c:pt idx="311">
+                        <c:v>1322</c:v>
+                      </c:pt>
+                      <c:pt idx="312">
+                        <c:v>1323</c:v>
+                      </c:pt>
+                      <c:pt idx="313">
+                        <c:v>1328</c:v>
+                      </c:pt>
+                      <c:pt idx="314">
+                        <c:v>1328</c:v>
+                      </c:pt>
+                      <c:pt idx="315">
+                        <c:v>1333</c:v>
+                      </c:pt>
+                      <c:pt idx="316">
+                        <c:v>1336</c:v>
+                      </c:pt>
+                      <c:pt idx="317">
+                        <c:v>1338</c:v>
+                      </c:pt>
+                      <c:pt idx="318">
+                        <c:v>1339</c:v>
+                      </c:pt>
+                      <c:pt idx="319">
+                        <c:v>1341</c:v>
+                      </c:pt>
+                      <c:pt idx="320">
+                        <c:v>1347</c:v>
+                      </c:pt>
+                      <c:pt idx="321">
+                        <c:v>1352</c:v>
+                      </c:pt>
+                      <c:pt idx="322">
+                        <c:v>1354</c:v>
+                      </c:pt>
+                      <c:pt idx="323">
+                        <c:v>1354</c:v>
+                      </c:pt>
+                      <c:pt idx="324">
+                        <c:v>1359</c:v>
+                      </c:pt>
+                      <c:pt idx="325">
+                        <c:v>1364</c:v>
+                      </c:pt>
+                      <c:pt idx="326">
+                        <c:v>1369</c:v>
+                      </c:pt>
+                      <c:pt idx="327">
+                        <c:v>1369</c:v>
+                      </c:pt>
+                      <c:pt idx="328">
+                        <c:v>1370</c:v>
+                      </c:pt>
+                      <c:pt idx="329">
+                        <c:v>1370</c:v>
+                      </c:pt>
+                      <c:pt idx="330">
+                        <c:v>1371</c:v>
+                      </c:pt>
+                      <c:pt idx="331">
+                        <c:v>1374</c:v>
+                      </c:pt>
+                      <c:pt idx="332">
+                        <c:v>1374</c:v>
+                      </c:pt>
+                      <c:pt idx="333">
+                        <c:v>1377</c:v>
+                      </c:pt>
+                      <c:pt idx="334">
+                        <c:v>1382</c:v>
+                      </c:pt>
+                      <c:pt idx="335">
+                        <c:v>1384</c:v>
+                      </c:pt>
+                      <c:pt idx="336">
+                        <c:v>1387</c:v>
+                      </c:pt>
+                      <c:pt idx="337">
+                        <c:v>1387</c:v>
+                      </c:pt>
+                      <c:pt idx="338">
+                        <c:v>1395</c:v>
+                      </c:pt>
+                      <c:pt idx="339">
+                        <c:v>1398</c:v>
+                      </c:pt>
+                      <c:pt idx="340">
+                        <c:v>1399</c:v>
+                      </c:pt>
+                      <c:pt idx="341">
+                        <c:v>1400</c:v>
+                      </c:pt>
+                      <c:pt idx="342">
+                        <c:v>1401</c:v>
+                      </c:pt>
+                      <c:pt idx="343">
+                        <c:v>1402</c:v>
+                      </c:pt>
+                      <c:pt idx="344">
+                        <c:v>1402</c:v>
+                      </c:pt>
+                      <c:pt idx="345">
+                        <c:v>1403</c:v>
+                      </c:pt>
+                      <c:pt idx="346">
+                        <c:v>1404</c:v>
+                      </c:pt>
+                      <c:pt idx="347">
+                        <c:v>1405</c:v>
+                      </c:pt>
+                      <c:pt idx="348">
+                        <c:v>1410</c:v>
+                      </c:pt>
+                      <c:pt idx="349">
+                        <c:v>1412</c:v>
+                      </c:pt>
+                      <c:pt idx="350">
+                        <c:v>1418</c:v>
+                      </c:pt>
+                      <c:pt idx="351">
+                        <c:v>1422</c:v>
+                      </c:pt>
+                      <c:pt idx="352">
+                        <c:v>1432</c:v>
+                      </c:pt>
+                      <c:pt idx="353">
+                        <c:v>1446</c:v>
+                      </c:pt>
+                      <c:pt idx="354">
+                        <c:v>1454</c:v>
+                      </c:pt>
+                      <c:pt idx="355">
+                        <c:v>1455</c:v>
+                      </c:pt>
+                      <c:pt idx="356">
+                        <c:v>1460</c:v>
+                      </c:pt>
+                      <c:pt idx="357">
+                        <c:v>1464</c:v>
+                      </c:pt>
+                      <c:pt idx="358">
+                        <c:v>1470</c:v>
+                      </c:pt>
+                      <c:pt idx="359">
+                        <c:v>1472</c:v>
+                      </c:pt>
+                      <c:pt idx="360">
+                        <c:v>1474</c:v>
+                      </c:pt>
+                      <c:pt idx="361">
+                        <c:v>1476</c:v>
+                      </c:pt>
+                      <c:pt idx="362">
+                        <c:v>1478</c:v>
+                      </c:pt>
+                      <c:pt idx="363">
+                        <c:v>1479</c:v>
+                      </c:pt>
+                      <c:pt idx="364">
+                        <c:v>1483</c:v>
+                      </c:pt>
+                      <c:pt idx="365">
+                        <c:v>1498</c:v>
+                      </c:pt>
+                      <c:pt idx="366">
+                        <c:v>1499</c:v>
+                      </c:pt>
+                      <c:pt idx="367">
+                        <c:v>1499</c:v>
+                      </c:pt>
+                      <c:pt idx="368">
+                        <c:v>1514</c:v>
+                      </c:pt>
+                      <c:pt idx="369">
+                        <c:v>1515</c:v>
+                      </c:pt>
+                      <c:pt idx="370">
+                        <c:v>1518</c:v>
+                      </c:pt>
+                      <c:pt idx="371">
+                        <c:v>1520</c:v>
+                      </c:pt>
+                      <c:pt idx="372">
+                        <c:v>1522</c:v>
+                      </c:pt>
+                      <c:pt idx="373">
+                        <c:v>1523</c:v>
+                      </c:pt>
+                      <c:pt idx="374">
+                        <c:v>1532</c:v>
+                      </c:pt>
+                      <c:pt idx="375">
+                        <c:v>1535</c:v>
+                      </c:pt>
+                      <c:pt idx="376">
+                        <c:v>1542</c:v>
+                      </c:pt>
+                      <c:pt idx="377">
+                        <c:v>1547</c:v>
+                      </c:pt>
+                      <c:pt idx="378">
+                        <c:v>1548</c:v>
+                      </c:pt>
+                      <c:pt idx="379">
+                        <c:v>1550</c:v>
+                      </c:pt>
+                      <c:pt idx="380">
+                        <c:v>1562</c:v>
+                      </c:pt>
+                      <c:pt idx="381">
+                        <c:v>1572</c:v>
+                      </c:pt>
+                      <c:pt idx="382">
+                        <c:v>1575</c:v>
+                      </c:pt>
+                      <c:pt idx="383">
+                        <c:v>1575</c:v>
+                      </c:pt>
+                      <c:pt idx="384">
+                        <c:v>1584</c:v>
+                      </c:pt>
+                      <c:pt idx="385">
+                        <c:v>1586</c:v>
+                      </c:pt>
+                      <c:pt idx="386">
+                        <c:v>1589</c:v>
+                      </c:pt>
+                      <c:pt idx="387">
+                        <c:v>1595</c:v>
+                      </c:pt>
+                      <c:pt idx="388">
+                        <c:v>1597</c:v>
+                      </c:pt>
+                      <c:pt idx="389">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                      <c:pt idx="390">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                      <c:pt idx="391">
+                        <c:v>1622</c:v>
+                      </c:pt>
+                      <c:pt idx="392">
+                        <c:v>1627</c:v>
+                      </c:pt>
+                      <c:pt idx="393">
+                        <c:v>1645</c:v>
+                      </c:pt>
+                      <c:pt idx="394">
+                        <c:v>1646</c:v>
+                      </c:pt>
+                      <c:pt idx="395">
+                        <c:v>1647</c:v>
+                      </c:pt>
+                      <c:pt idx="396">
+                        <c:v>1654</c:v>
+                      </c:pt>
+                      <c:pt idx="397">
+                        <c:v>1661</c:v>
+                      </c:pt>
+                      <c:pt idx="398">
+                        <c:v>1671</c:v>
+                      </c:pt>
+                      <c:pt idx="399">
+                        <c:v>1678</c:v>
+                      </c:pt>
+                      <c:pt idx="400">
+                        <c:v>1684</c:v>
+                      </c:pt>
+                      <c:pt idx="401">
+                        <c:v>1685</c:v>
+                      </c:pt>
+                      <c:pt idx="402">
+                        <c:v>1685</c:v>
+                      </c:pt>
+                      <c:pt idx="403">
+                        <c:v>1697</c:v>
+                      </c:pt>
+                      <c:pt idx="404">
+                        <c:v>1697</c:v>
+                      </c:pt>
+                      <c:pt idx="405">
+                        <c:v>1702</c:v>
+                      </c:pt>
+                      <c:pt idx="406">
+                        <c:v>1705</c:v>
+                      </c:pt>
+                      <c:pt idx="407">
+                        <c:v>1727</c:v>
+                      </c:pt>
+                      <c:pt idx="408">
+                        <c:v>1728</c:v>
+                      </c:pt>
+                      <c:pt idx="409">
+                        <c:v>1728</c:v>
+                      </c:pt>
+                      <c:pt idx="410">
+                        <c:v>1734</c:v>
+                      </c:pt>
+                      <c:pt idx="411">
+                        <c:v>1736</c:v>
+                      </c:pt>
+                      <c:pt idx="412">
+                        <c:v>1742</c:v>
+                      </c:pt>
+                      <c:pt idx="413">
+                        <c:v>1803</c:v>
+                      </c:pt>
+                      <c:pt idx="414">
+                        <c:v>1805</c:v>
+                      </c:pt>
+                      <c:pt idx="415">
+                        <c:v>1809</c:v>
+                      </c:pt>
+                      <c:pt idx="416">
+                        <c:v>1836</c:v>
+                      </c:pt>
+                      <c:pt idx="417">
+                        <c:v>1841</c:v>
+                      </c:pt>
+                      <c:pt idx="418">
+                        <c:v>1869</c:v>
+                      </c:pt>
+                      <c:pt idx="419">
+                        <c:v>2072</c:v>
+                      </c:pt>
+                      <c:pt idx="420">
+                        <c:v>2105</c:v>
+                      </c:pt>
+                      <c:pt idx="421">
+                        <c:v>2573</c:v>
+                      </c:pt>
+                      <c:pt idx="422">
+                        <c:v>3124</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BBB7-41D3-8663-6C2AFF8C71E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Без стопслов</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="50000"/>
+                          <a:satMod val="300000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="35000">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="37000"/>
+                          <a:satMod val="300000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="15000"/>
+                          <a:satMod val="350000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="16200000" scaled="1"/>
+                  </a:gradFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:shade val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="38000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$D$2:$D$424</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="423"/>
+                      <c:pt idx="0">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>232</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>242</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>297</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>316</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>312</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>303</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>317</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>326</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>359</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>341</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>379</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>328</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>361</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>353</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>372</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>395</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>399</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>382</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>411</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>422</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>387</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>354</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>393</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>410</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>426</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>439</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>403</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>431</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>449</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>407</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>434</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>431</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>431</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>422</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>411</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>462</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>454</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>454</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>441</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>428</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>461</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>455</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>478</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>474</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>483</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>469</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>473</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>462</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>504</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>480</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>511</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>526</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>516</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>482</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>536</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>486</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>546</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>515</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>552</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>521</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>517</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>539</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>531</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>548</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>536</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>520</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>561</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>519</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>544</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>603</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>561</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>596</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>576</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>557</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>572</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>570</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>587</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>582</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>569</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>588</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>563</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>610</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>583</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>542</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>605</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>569</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>616</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>596</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>578</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>624</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>607</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>587</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>565</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>618</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>595</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>637</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>607</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>615</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>629</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>632</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>621</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>624</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>645</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>643</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>657</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>619</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>687</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>610</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>641</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>674</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>663</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>663</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>671</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>667</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>634</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>701</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>655</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>667</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>649</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>683</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>674</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>673</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>686</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>650</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>681</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>684</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>675</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>710</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>667</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>706</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>692</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>764</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>682</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>729</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>672</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>702</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>705</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>759</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>701</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>715</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>706</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>744</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>731</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>704</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>749</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>707</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>727</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>788</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>727</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>769</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>759</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>774</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>756</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>762</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>732</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>774</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>747</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>768</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>732</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>779</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>727</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>805</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>773</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>820</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>797</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>734</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>731</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>785</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>816</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>741</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>795</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>812</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>792</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>836</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>805</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>761</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>779</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>844</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>828</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>840</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>794</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>807</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>810</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>785</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>825</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>812</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>839</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>843</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>823</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>819</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>811</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>839</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>763</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>832</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>823</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>767</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>827</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>824</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>816</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>853</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>843</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>866</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>822</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>821</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>956</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>878</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>870</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>859</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>825</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>823</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>861</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>878</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>890</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>872</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>885</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>827</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>852</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>798</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>883</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>931</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>848</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>797</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>841</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>808</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>926</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>910</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>891</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>868</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>906</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>860</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>894</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>885</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>874</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>906</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>892</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>930</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>901</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>860</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>960</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>924</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>934</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>899</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>854</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>972</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>920</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>947</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>958</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>907</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>906</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>915</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>930</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>889</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>945</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>962</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>905</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>915</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>921</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>957</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>925</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>969</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>918</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>921</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>966</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>946</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>986</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>923</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>953</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>990</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>912</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>940</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>965</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>989</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>1030</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>989</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>986</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>904</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>966</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>957</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>959</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>955</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>999</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>1010</c:v>
+                      </c:pt>
+                      <c:pt idx="297">
+                        <c:v>1062</c:v>
+                      </c:pt>
+                      <c:pt idx="298">
+                        <c:v>969</c:v>
+                      </c:pt>
+                      <c:pt idx="299">
+                        <c:v>1033</c:v>
+                      </c:pt>
+                      <c:pt idx="300">
+                        <c:v>986</c:v>
+                      </c:pt>
+                      <c:pt idx="301">
+                        <c:v>970</c:v>
+                      </c:pt>
+                      <c:pt idx="302">
+                        <c:v>1058</c:v>
+                      </c:pt>
+                      <c:pt idx="303">
+                        <c:v>959</c:v>
+                      </c:pt>
+                      <c:pt idx="304">
+                        <c:v>1005</c:v>
+                      </c:pt>
+                      <c:pt idx="305">
+                        <c:v>972</c:v>
+                      </c:pt>
+                      <c:pt idx="306">
+                        <c:v>1019</c:v>
+                      </c:pt>
+                      <c:pt idx="307">
+                        <c:v>1018</c:v>
+                      </c:pt>
+                      <c:pt idx="308">
+                        <c:v>1067</c:v>
+                      </c:pt>
+                      <c:pt idx="309">
+                        <c:v>1002</c:v>
+                      </c:pt>
+                      <c:pt idx="310">
+                        <c:v>997</c:v>
+                      </c:pt>
+                      <c:pt idx="311">
+                        <c:v>1028</c:v>
+                      </c:pt>
+                      <c:pt idx="312">
+                        <c:v>990</c:v>
+                      </c:pt>
+                      <c:pt idx="313">
+                        <c:v>1071</c:v>
+                      </c:pt>
+                      <c:pt idx="314">
+                        <c:v>1046</c:v>
+                      </c:pt>
+                      <c:pt idx="315">
+                        <c:v>1065</c:v>
+                      </c:pt>
+                      <c:pt idx="316">
+                        <c:v>1021</c:v>
+                      </c:pt>
+                      <c:pt idx="317">
+                        <c:v>991</c:v>
+                      </c:pt>
+                      <c:pt idx="318">
+                        <c:v>975</c:v>
+                      </c:pt>
+                      <c:pt idx="319">
+                        <c:v>1087</c:v>
+                      </c:pt>
+                      <c:pt idx="320">
+                        <c:v>1068</c:v>
+                      </c:pt>
+                      <c:pt idx="321">
+                        <c:v>936</c:v>
+                      </c:pt>
+                      <c:pt idx="322">
+                        <c:v>1082</c:v>
+                      </c:pt>
+                      <c:pt idx="323">
+                        <c:v>1096</c:v>
+                      </c:pt>
+                      <c:pt idx="324">
+                        <c:v>1051</c:v>
+                      </c:pt>
+                      <c:pt idx="325">
+                        <c:v>1028</c:v>
+                      </c:pt>
+                      <c:pt idx="326">
+                        <c:v>1049</c:v>
+                      </c:pt>
+                      <c:pt idx="327">
+                        <c:v>940</c:v>
+                      </c:pt>
+                      <c:pt idx="328">
+                        <c:v>1061</c:v>
+                      </c:pt>
+                      <c:pt idx="329">
+                        <c:v>1075</c:v>
+                      </c:pt>
+                      <c:pt idx="330">
+                        <c:v>985</c:v>
+                      </c:pt>
+                      <c:pt idx="331">
+                        <c:v>1099</c:v>
+                      </c:pt>
+                      <c:pt idx="332">
+                        <c:v>1046</c:v>
+                      </c:pt>
+                      <c:pt idx="333">
+                        <c:v>1067</c:v>
+                      </c:pt>
+                      <c:pt idx="334">
+                        <c:v>1058</c:v>
+                      </c:pt>
+                      <c:pt idx="335">
+                        <c:v>1131</c:v>
+                      </c:pt>
+                      <c:pt idx="336">
+                        <c:v>1070</c:v>
+                      </c:pt>
+                      <c:pt idx="337">
+                        <c:v>1121</c:v>
+                      </c:pt>
+                      <c:pt idx="338">
+                        <c:v>1072</c:v>
+                      </c:pt>
+                      <c:pt idx="339">
+                        <c:v>1041</c:v>
+                      </c:pt>
+                      <c:pt idx="340">
+                        <c:v>1087</c:v>
+                      </c:pt>
+                      <c:pt idx="341">
+                        <c:v>1094</c:v>
+                      </c:pt>
+                      <c:pt idx="342">
+                        <c:v>1107</c:v>
+                      </c:pt>
+                      <c:pt idx="343">
+                        <c:v>1100</c:v>
+                      </c:pt>
+                      <c:pt idx="344">
+                        <c:v>1046</c:v>
+                      </c:pt>
+                      <c:pt idx="345">
+                        <c:v>1139</c:v>
+                      </c:pt>
+                      <c:pt idx="346">
+                        <c:v>1128</c:v>
+                      </c:pt>
+                      <c:pt idx="347">
+                        <c:v>984</c:v>
+                      </c:pt>
+                      <c:pt idx="348">
+                        <c:v>1084</c:v>
+                      </c:pt>
+                      <c:pt idx="349">
+                        <c:v>1138</c:v>
+                      </c:pt>
+                      <c:pt idx="350">
+                        <c:v>1100</c:v>
+                      </c:pt>
+                      <c:pt idx="351">
+                        <c:v>1124</c:v>
+                      </c:pt>
+                      <c:pt idx="352">
+                        <c:v>1133</c:v>
+                      </c:pt>
+                      <c:pt idx="353">
+                        <c:v>1056</c:v>
+                      </c:pt>
+                      <c:pt idx="354">
+                        <c:v>1157</c:v>
+                      </c:pt>
+                      <c:pt idx="355">
+                        <c:v>1123</c:v>
+                      </c:pt>
+                      <c:pt idx="356">
+                        <c:v>1165</c:v>
+                      </c:pt>
+                      <c:pt idx="357">
+                        <c:v>1119</c:v>
+                      </c:pt>
+                      <c:pt idx="358">
+                        <c:v>1172</c:v>
+                      </c:pt>
+                      <c:pt idx="359">
+                        <c:v>1138</c:v>
+                      </c:pt>
+                      <c:pt idx="360">
+                        <c:v>1029</c:v>
+                      </c:pt>
+                      <c:pt idx="361">
+                        <c:v>1110</c:v>
+                      </c:pt>
+                      <c:pt idx="362">
+                        <c:v>1134</c:v>
+                      </c:pt>
+                      <c:pt idx="363">
+                        <c:v>1131</c:v>
+                      </c:pt>
+                      <c:pt idx="364">
+                        <c:v>1075</c:v>
+                      </c:pt>
+                      <c:pt idx="365">
+                        <c:v>1157</c:v>
+                      </c:pt>
+                      <c:pt idx="366">
+                        <c:v>1215</c:v>
+                      </c:pt>
+                      <c:pt idx="367">
+                        <c:v>1221</c:v>
+                      </c:pt>
+                      <c:pt idx="368">
+                        <c:v>1199</c:v>
+                      </c:pt>
+                      <c:pt idx="369">
+                        <c:v>1062</c:v>
+                      </c:pt>
+                      <c:pt idx="370">
+                        <c:v>1150</c:v>
+                      </c:pt>
+                      <c:pt idx="371">
+                        <c:v>1083</c:v>
+                      </c:pt>
+                      <c:pt idx="372">
+                        <c:v>1204</c:v>
+                      </c:pt>
+                      <c:pt idx="373">
+                        <c:v>1151</c:v>
+                      </c:pt>
+                      <c:pt idx="374">
+                        <c:v>1153</c:v>
+                      </c:pt>
+                      <c:pt idx="375">
+                        <c:v>1073</c:v>
+                      </c:pt>
+                      <c:pt idx="376">
+                        <c:v>1095</c:v>
+                      </c:pt>
+                      <c:pt idx="377">
+                        <c:v>1170</c:v>
+                      </c:pt>
+                      <c:pt idx="378">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="379">
+                        <c:v>1194</c:v>
+                      </c:pt>
+                      <c:pt idx="380">
+                        <c:v>1300</c:v>
+                      </c:pt>
+                      <c:pt idx="381">
+                        <c:v>1232</c:v>
+                      </c:pt>
+                      <c:pt idx="382">
+                        <c:v>1153</c:v>
+                      </c:pt>
+                      <c:pt idx="383">
+                        <c:v>1251</c:v>
+                      </c:pt>
+                      <c:pt idx="384">
+                        <c:v>1224</c:v>
+                      </c:pt>
+                      <c:pt idx="385">
+                        <c:v>1245</c:v>
+                      </c:pt>
+                      <c:pt idx="386">
+                        <c:v>1148</c:v>
+                      </c:pt>
+                      <c:pt idx="387">
+                        <c:v>1141</c:v>
+                      </c:pt>
+                      <c:pt idx="388">
+                        <c:v>1245</c:v>
+                      </c:pt>
+                      <c:pt idx="389">
+                        <c:v>1264</c:v>
+                      </c:pt>
+                      <c:pt idx="390">
+                        <c:v>1237</c:v>
+                      </c:pt>
+                      <c:pt idx="391">
+                        <c:v>1216</c:v>
+                      </c:pt>
+                      <c:pt idx="392">
+                        <c:v>1267</c:v>
+                      </c:pt>
+                      <c:pt idx="393">
+                        <c:v>1262</c:v>
+                      </c:pt>
+                      <c:pt idx="394">
+                        <c:v>1296</c:v>
+                      </c:pt>
+                      <c:pt idx="395">
+                        <c:v>1216</c:v>
+                      </c:pt>
+                      <c:pt idx="396">
+                        <c:v>1256</c:v>
+                      </c:pt>
+                      <c:pt idx="397">
+                        <c:v>1255</c:v>
+                      </c:pt>
+                      <c:pt idx="398">
+                        <c:v>1164</c:v>
+                      </c:pt>
+                      <c:pt idx="399">
+                        <c:v>1229</c:v>
+                      </c:pt>
+                      <c:pt idx="400">
+                        <c:v>1246</c:v>
+                      </c:pt>
+                      <c:pt idx="401">
+                        <c:v>1264</c:v>
+                      </c:pt>
+                      <c:pt idx="402">
+                        <c:v>1263</c:v>
+                      </c:pt>
+                      <c:pt idx="403">
+                        <c:v>1336</c:v>
+                      </c:pt>
+                      <c:pt idx="404">
+                        <c:v>1247</c:v>
+                      </c:pt>
+                      <c:pt idx="405">
+                        <c:v>1278</c:v>
+                      </c:pt>
+                      <c:pt idx="406">
+                        <c:v>1356</c:v>
+                      </c:pt>
+                      <c:pt idx="407">
+                        <c:v>1290</c:v>
+                      </c:pt>
+                      <c:pt idx="408">
+                        <c:v>1291</c:v>
+                      </c:pt>
+                      <c:pt idx="409">
+                        <c:v>1284</c:v>
+                      </c:pt>
+                      <c:pt idx="410">
+                        <c:v>1282</c:v>
+                      </c:pt>
+                      <c:pt idx="411">
+                        <c:v>1411</c:v>
+                      </c:pt>
+                      <c:pt idx="412">
+                        <c:v>1216</c:v>
+                      </c:pt>
+                      <c:pt idx="413">
+                        <c:v>1310</c:v>
+                      </c:pt>
+                      <c:pt idx="414">
+                        <c:v>1460</c:v>
+                      </c:pt>
+                      <c:pt idx="415">
+                        <c:v>1433</c:v>
+                      </c:pt>
+                      <c:pt idx="416">
+                        <c:v>1364</c:v>
+                      </c:pt>
+                      <c:pt idx="417">
+                        <c:v>1288</c:v>
+                      </c:pt>
+                      <c:pt idx="418">
+                        <c:v>1323</c:v>
+                      </c:pt>
+                      <c:pt idx="419">
+                        <c:v>1575</c:v>
+                      </c:pt>
+                      <c:pt idx="420">
+                        <c:v>1617</c:v>
+                      </c:pt>
+                      <c:pt idx="421">
+                        <c:v>1981</c:v>
+                      </c:pt>
+                      <c:pt idx="422">
+                        <c:v>2472</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BBB7-41D3-8663-6C2AFF8C71E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>Количество ключевых фраз</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:tint val="50000"/>
+                          <a:satMod val="300000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="35000">
+                        <a:schemeClr val="accent4">
+                          <a:tint val="37000"/>
+                          <a:satMod val="300000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:tint val="15000"/>
+                          <a:satMod val="350000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="16200000" scaled="1"/>
+                  </a:gradFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:shade val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="38000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист2!$B$2:$B$424</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="423"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="297">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="298">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="299">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="300">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="301">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="302">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="303">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="304">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="305">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="306">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="307">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="308">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="309">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="310">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="311">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="312">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="313">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="314">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="315">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="316">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="317">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="318">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="319">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="320">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="321">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="322">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="323">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="324">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="325">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="326">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="327">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="328">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="329">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="330">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="331">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="332">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="333">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="334">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="335">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="336">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="337">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="338">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="339">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="340">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="341">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="342">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="343">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="344">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="345">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="346">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="347">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="348">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="349">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="350">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="351">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="352">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="353">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="354">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="355">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="356">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="357">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="358">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="359">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="360">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="361">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="362">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="363">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="364">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="365">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="366">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="367">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="368">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="369">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="370">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="371">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="372">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="373">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="374">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="375">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="376">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="377">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="378">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="379">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="380">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="381">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="382">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="383">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="384">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="385">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="386">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="387">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="388">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="389">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="390">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="391">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="392">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="393">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="394">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="395">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="396">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="397">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="398">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="399">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="400">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="401">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="402">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="403">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="404">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="405">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="406">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="407">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="408">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="409">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="410">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="411">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="412">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="413">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="414">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="415">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="416">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="417">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="418">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="419">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="420">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="421">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="422">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-BBB7-41D3-8663-6C2AFF8C71E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="584255816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>НОМЕР СТАТЬИ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584259424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="50"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584259424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество  ключевых слов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584255816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -9903,6 +15846,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12521,6 +18504,531 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12600,13 +19108,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
+      <xdr:colOff>96763</xdr:colOff>
       <xdr:row>446</xdr:row>
       <xdr:rowOff>61428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
+      <xdr:colOff>27216</xdr:colOff>
       <xdr:row>464</xdr:row>
       <xdr:rowOff>131407</xdr:rowOff>
     </xdr:to>
@@ -12678,16 +19186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12709,6 +19217,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>583595</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113521</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84A121A-DF50-4E07-B162-24DF77D1797B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20298,8 +26844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4419A687-D1D1-42BD-8688-8DB69C128613}">
   <dimension ref="A1:E424"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C424"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E456" sqref="E456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -27532,8 +34078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A7CE05-8F0B-4B20-B3A4-1AF6E1E6C057}">
   <dimension ref="A1:C424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -32214,4 +38760,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967E8986-8D46-43E6-BD28-F5E32B4F8FE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>